--- a/medicine/Enfance/David_Cirici/David_Cirici.xlsx
+++ b/medicine/Enfance/David_Cirici/David_Cirici.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Cirici i Alomar, né le 11 février 1954 à Barcelone (Espagne), est un écrivain espagnol d'expression catalane.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé de philologie catalane, David Cirici est membre du PEN club catalan et de l'Association des écrivains de langue catalane (AELC). Il a été professeur de langue et de littérature catalanes, ainsi que scénariste de télévision, notamment pour La Trinca, groupe de musique et de spectacles très célèbre dans les pays catalans dans les années 1970.
 </t>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature pour la jeunesse
-Robòtia. Barcelone, Laia, 1985
+          <t>Littérature pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Robòtia. Barcelone, Laia, 1985
 Llibre de vòlics, laquidambres i altres espècies. Barcelone, Destino, 1986
 L'esquelet de la balena. Barcelone, Empúries, 1986 (26 éditions)
 Vols que et tallin una orella? Barcelone, Empúries, 1988
@@ -553,27 +572,163 @@
 Els grúfols. Barcelone, Abadia de Montserrat, 1998
 Bet i Bup: Bèsties i bestieses. Barcelone, Destino, 2001
 Bet i Bup: Si jo fos com tu. Barcelone, Destino, 2002
-Molsa. Barcelona, Edebé, 2013[1]
-Zona prohibida. Barcelone, Fanbooks, 2013[2]
-La decisió d'en Viggo. Zona Prohibida II, Fanbooks, 2015
-Ouvrages documentaires pour la jeunesse
-L'home del cartró. Barcelone, Ajuntament de Barcelona, 2002
-La petita ciència de la salut, avec Valentí Fuster. Barcelone, Planeta, 2011
-Romans
-El baró i la leprosa. Barcelone, Empúries, 1999
+Molsa. Barcelona, Edebé, 2013
+Zona prohibida. Barcelone, Fanbooks, 2013
+La decisió d'en Viggo. Zona Prohibida II, Fanbooks, 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>David_Cirici</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Cirici</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages documentaires pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'home del cartró. Barcelone, Ajuntament de Barcelona, 2002
+La petita ciència de la salut, avec Valentí Fuster. Barcelone, Planeta, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>David_Cirici</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Cirici</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>El baró i la leprosa. Barcelone, Empúries, 1999
 La vida dels altres. Barcelone, Planeta, 2000
 Els errors. Barcelone, Columna, 2003
 I el món gira. Barcelone, Columna, 2011
 El lladre del Guernica. Barcelone, Proa, 2015
-El setè àngel. Barcelone, Proa, 2017
-Œuvres scéniques
-Blau marí (musical). Compagnie Roseland Musical, Barcelone, 1988
+El setè àngel. Barcelone, Proa, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>David_Cirici</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Cirici</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Œuvres scéniques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Blau marí (musical). Compagnie Roseland Musical, Barcelone, 1988
 Flit-flit (musical). Compagnie Roseland Musical, Barcelone, 1989
 La casa per la finestra (musical). Compagnie Roseland Musical, Barcelone, 1991
 Cara, calla (musical). Compagnie Roseland Musical, Barcelone, 1994
-Molsa (danse et marionnettes). Compagnie Thomas Noon, 2018
-Œuvres traduites
-(es)  El esqueleto de la ballena. Grijalbo Mondadori, collection El Arca, 1995
+Molsa (danse et marionnettes). Compagnie Thomas Noon, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>David_Cirici</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Cirici</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Œuvres traduites</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(es)  El esqueleto de la ballena. Grijalbo Mondadori, collection El Arca, 1995
 (eu)  Balearen eskeletoa. Elkar, 1992
 (es)  Musgo. Edebé, 2013 (traducció de Molsa)
 (de) So riecht glück. Dressler, 2014 (traduction de Molsa)
@@ -585,40 +740,42 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>David_Cirici</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/David_Cirici</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix littéraires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1982 : Recueil Francesc Puig i Llensa de narration pour Una ploma de gralla
 1986 : Prix Ramon Muntaner de littérature jeunesse pour L'esquelet de la balena
 1995 :  Prix Marian Vayreda du roman (Prix littéraires de la ville d'Olot) pour La fàbrica de mentides
 1996 : Prix de la critique Serra d'Or de Littérature jeunesse pour La fàbrica de mentides
 2003 : Prix du 23 avril pour Els errors
-2011 : Prix Prudenci Bertana du roman pour I el món gira[3]
+2011 : Prix Prudenci Bertana du roman pour I el món gira
 2012 : Prix Edebé de littérature jeunesse pour Molsa
-2013 : Prix Ramon Muntaner de littérature jeunesse pour  Zona prohibida[2]
+2013 : Prix Ramon Muntaner de littérature jeunesse pour  Zona prohibida
 2015 : Prix de littérature jeunesse El Vaixell de Vapor pour El vol de l'oreneta.
 2016 : Prix Sant Jordi du roman pour El setè àngel.
 2017 : Prix Strega de littérature jeunesse (Italie) pour Muschio  (traduction en italien de Molsa)
